--- a/LMADefs-SATIMGE.xlsx
+++ b/LMADefs-SATIMGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7215E8FC-905E-4FBC-AD00-60BA5F5142AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BD2511-C098-4C1E-AF5D-E0E62BC1EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3180" yWindow="-17685" windowWidth="25800" windowHeight="15240" firstSheet="2" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
+    <workbookView xWindow="-3195" yWindow="-18390" windowWidth="28350" windowHeight="15150" firstSheet="1" activeTab="3" xr2:uid="{05AD35DE-0BB5-4D70-AD01-E84E11ACA14E}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenMap" sheetId="56" r:id="rId1"/>
@@ -227,12 +227,165 @@
         </r>
       </text>
     </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{4774BB2B-D40D-4682-B0A7-88BA9B328DA3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3/20/2013
+to use as weight for aggregating over commodities or TS (or process?)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{0D6E77C5-699F-4F9D-846C-D274DC78B596}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6/4/2011
+These sets should not have common elements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0" xr:uid="{47B804F7-9571-489C-B3DC-7EC1C869FC5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3/20/2013
+to use as weight for aggregating over commodities or TS (or process?)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{D9007585-E19C-4DD1-A73C-D2F8403412A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6/4/2011
+These sets should not have common elements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0" xr:uid="{8A4A0EFD-59BD-42C4-A6BE-BE92BAB0CD84}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3/20/2013
+to use as weight for aggregating over commodities or TS (or process?)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C43" authorId="0" shapeId="0" xr:uid="{5DD49E4D-BE6F-493B-9CE5-FD4D9CB00FD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6/4/2011
+These sets should not have common elements</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5234" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5469" uniqueCount="1120">
   <si>
     <t>Unit</t>
   </si>
@@ -3285,18 +3438,9 @@
     <t>&lt;cset&gt;_src_&lt;pset&gt;</t>
   </si>
   <si>
-    <t>Elec_Trans</t>
-  </si>
-  <si>
-    <t>Elec_Gen</t>
-  </si>
-  <si>
     <t>&lt;cset&gt;_snk_&lt;pset&gt;</t>
   </si>
   <si>
-    <t>Edist_All</t>
-  </si>
-  <si>
     <t>ElectricitySector</t>
   </si>
   <si>
@@ -3339,9 +3483,6 @@
     <t>HGN</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>PWR</t>
   </si>
   <si>
@@ -3372,9 +3513,6 @@
     <t>HydrogenSector</t>
   </si>
   <si>
-    <t>IND,TRA</t>
-  </si>
-  <si>
     <t>Solar</t>
   </si>
   <si>
@@ -3426,15 +3564,6 @@
     <t>kg/kWh</t>
   </si>
   <si>
-    <t>AGR,COM,IND,RES,TRA,HGN,EXP,UAL</t>
-  </si>
-  <si>
-    <t>UAL</t>
-  </si>
-  <si>
-    <t>EnergyIndustries</t>
-  </si>
-  <si>
     <t>kton</t>
   </si>
   <si>
@@ -3444,19 +3573,178 @@
     <t>kwh</t>
   </si>
   <si>
-    <t>RER</t>
-  </si>
-  <si>
-    <t>RenewableResource</t>
-  </si>
-  <si>
     <t>Wind,Solar,Hydro</t>
   </si>
   <si>
     <t>NaturalGas,Coal,OilProducts,Nuclear,Biomass,CrudeOil</t>
   </si>
   <si>
-    <t>IMP,MIN,REF,GTL,CTL,RER</t>
+    <t>CrudeRefineries</t>
+  </si>
+  <si>
+    <t>REResource</t>
+  </si>
+  <si>
+    <t>ElectricityGen</t>
+  </si>
+  <si>
+    <t>ElectricityDist</t>
+  </si>
+  <si>
+    <t>Agriculture,Commerce,Industry,Residential,Transport,Refineries,HydrogenSector,Exports,</t>
+  </si>
+  <si>
+    <t>Industry,Transport</t>
+  </si>
+  <si>
+    <t>~TS_Defs: snk_attr=Sankey_all</t>
+  </si>
+  <si>
+    <t>Agriculture,Commerce,Industry,Residential,Transport,CrudeRefineries,Synfuels,HydrogenSector,Exports,ElectricitySector</t>
+  </si>
+  <si>
+    <t>Imports,Extraction,CrudeRefineries,Synfuels,REResource</t>
+  </si>
+  <si>
+    <t>ElecDist,ElecGenDist</t>
+  </si>
+  <si>
+    <t>FuelSupply</t>
+  </si>
+  <si>
+    <t>ElecDist</t>
+  </si>
+  <si>
+    <t>ElecGenDist</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>SSEG</t>
+  </si>
+  <si>
+    <t>Res Elc</t>
+  </si>
+  <si>
+    <t>Res Coal,Res OilProducts,Res Gas,Res Biomass</t>
+  </si>
+  <si>
+    <t>Res Coal</t>
+  </si>
+  <si>
+    <t>Res OilProducts</t>
+  </si>
+  <si>
+    <t>Res Gas</t>
+  </si>
+  <si>
+    <t>Res Biomass</t>
+  </si>
+  <si>
+    <t>&lt;pset&gt;_snk_&lt;cset&gt;</t>
+  </si>
+  <si>
+    <t>Cooking dem</t>
+  </si>
+  <si>
+    <t>Lighting dem</t>
+  </si>
+  <si>
+    <t>Non Energy dem</t>
+  </si>
+  <si>
+    <t>Other dem</t>
+  </si>
+  <si>
+    <t>Refrigeration dem</t>
+  </si>
+  <si>
+    <t>Space Heating dem</t>
+  </si>
+  <si>
+    <t>Water Heating dem</t>
+  </si>
+  <si>
+    <t>Cooking dem,Lighting dem,Other dem,Refrigeration dem,Space Heating dem,Water Heating dem,</t>
+  </si>
+  <si>
+    <t>RLCooking</t>
+  </si>
+  <si>
+    <t>RLLighting</t>
+  </si>
+  <si>
+    <t>RLNon Energy</t>
+  </si>
+  <si>
+    <t>RLOther</t>
+  </si>
+  <si>
+    <t>RLRefrigeration</t>
+  </si>
+  <si>
+    <t>RLSpace Heating</t>
+  </si>
+  <si>
+    <t>RLWater Heating</t>
+  </si>
+  <si>
+    <t>RMCooking</t>
+  </si>
+  <si>
+    <t>RMLighting</t>
+  </si>
+  <si>
+    <t>RMNon Energy</t>
+  </si>
+  <si>
+    <t>RMOther</t>
+  </si>
+  <si>
+    <t>RMRefrigeration</t>
+  </si>
+  <si>
+    <t>RMSpace Heating</t>
+  </si>
+  <si>
+    <t>RMWater Heating</t>
+  </si>
+  <si>
+    <t>RHCooking</t>
+  </si>
+  <si>
+    <t>RHLighting</t>
+  </si>
+  <si>
+    <t>RHNon Energy</t>
+  </si>
+  <si>
+    <t>RHOther</t>
+  </si>
+  <si>
+    <t>RHRefrigeration</t>
+  </si>
+  <si>
+    <t>RHSpace Heating</t>
+  </si>
+  <si>
+    <t>RHWater Heating</t>
+  </si>
+  <si>
+    <t>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,RMSpace Heating,RMWater Heating,RHCooking,RHLighting,RHOther,RHRefrigeration,RHSpace Heating,RHWater Heating,</t>
+  </si>
+  <si>
+    <t>~TS_Defs: snk_attr=Sankey_ResDetV0</t>
+  </si>
+  <si>
+    <t>Cooking,Lighting,Other,Refrigeration,Space Heating,Water Heating,</t>
+  </si>
+  <si>
+    <t>TS_Defs: snk_attr=Sankey_ResDetV1</t>
+  </si>
+  <si>
+    <t>~TS_Defs: snk_attr=Sankey_ResDetV2</t>
   </si>
 </sst>
 </file>
@@ -28583,7 +28871,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -28607,13 +28895,13 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B4" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C4" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="D4">
         <f>1/3.6</f>
@@ -28622,26 +28910,26 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B5" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C5" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="D5">
         <f>M5/O6</f>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="L5" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="M5" s="3">
         <v>1000000</v>
       </c>
       <c r="N5" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -28653,14 +28941,14 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="N6" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="O6">
         <f>M6*1000000000</f>
         <v>277777777.77777779</v>
       </c>
       <c r="P6" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -28716,7 +29004,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -28809,19 +29097,19 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="I5" t="s">
         <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="L5" t="s">
         <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="R5" t="s">
         <v>43</v>
@@ -28835,7 +29123,7 @@
         <v>175</v>
       </c>
       <c r="L6" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="O6" t="s">
         <v>176</v>
@@ -29029,9 +29317,9 @@
         <f>'PSet_MAP coarse'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H3" t="str">
-        <f>CSET_MAP!$F$4</f>
-        <v>Elec_Trans,Elec_Gen,</v>
+      <c r="H3">
+        <f>CSET_MAP!$F$3</f>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>39</v>
@@ -29051,16 +29339,16 @@
         <f>C3</f>
         <v>#REF!</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4">
         <f>H3</f>
-        <v>Elec_Trans,Elec_Gen,</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2"/>
       <c r="K4" t="s">
         <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="Q4" t="s">
         <v>84</v>
@@ -29076,17 +29364,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EB7CB0-10A4-4243-B0C4-E7A691753461}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -29100,19 +29388,20 @@
     <col min="14" max="14" width="17.28515625" customWidth="1"/>
     <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="107.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="107.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -29161,23 +29450,23 @@
       <c r="P2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="str">
-        <f>'PSet_MAP coarse'!A17</f>
-        <v>Edist_All</v>
+      <c r="C3" t="s">
+        <v>298</v>
       </c>
       <c r="H3" t="s">
-        <v>1022</v>
+        <v>1067</v>
       </c>
       <c r="I3" s="2"/>
       <c r="K3" t="s">
@@ -29186,41 +29475,41 @@
       <c r="N3" t="s">
         <v>1016</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="H4" t="s">
-        <v>1022</v>
+        <v>1067</v>
       </c>
       <c r="K4" t="s">
         <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Q4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
       <c r="H6" t="s">
         <v>155</v>
@@ -29232,16 +29521,16 @@
       <c r="N6" t="s">
         <v>1016</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>1046</v>
+        <v>1069</v>
       </c>
       <c r="H7" t="s">
         <v>155</v>
@@ -29250,26 +29539,26 @@
         <v>39</v>
       </c>
       <c r="N7" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Q7" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H9" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="I9" s="2"/>
       <c r="K9" t="s">
@@ -29278,17 +29567,16 @@
       <c r="N9" t="s">
         <v>1016</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="str">
-        <f>'PSet_MAP coarse'!F13</f>
-        <v>AGR,COM,IND,RES,TRA,REF,CTL,GTL,HGN,EXP,PWR,</v>
+      <c r="C10" t="s">
+        <v>1071</v>
       </c>
       <c r="H10" t="str">
         <f>H9</f>
@@ -29298,26 +29586,26 @@
         <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Q10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="H12" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="I12" s="2"/>
       <c r="K12" t="s">
@@ -29326,16 +29614,16 @@
       <c r="N12" t="s">
         <v>1016</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>1036</v>
+        <v>1018</v>
       </c>
       <c r="H13" t="str">
         <f>H12</f>
@@ -29345,14 +29633,483 @@
         <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Q13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
-      <c r="I18" s="2"/>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="K20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="R20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="K23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="R23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1016</v>
+      </c>
+      <c r="R31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1016</v>
+      </c>
+      <c r="R34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1079</v>
+      </c>
+      <c r="I44" s="2"/>
+      <c r="K44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" t="s">
+        <v>1016</v>
+      </c>
+      <c r="R44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
+      <c r="N45" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I47" s="2"/>
+      <c r="K47" t="s">
+        <v>39</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1016</v>
+      </c>
+      <c r="R47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K48" t="s">
+        <v>39</v>
+      </c>
+      <c r="N48" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R48" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29364,10 +30121,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29393,7 +30150,7 @@
         <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="T2" t="s">
         <v>447</v>
@@ -29401,37 +30158,35 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B15" si="0">INDEX($T$2:$T$15,MATCH(LEFT(A3,3),$S$2:$S$15,0))</f>
-        <v>Industry</v>
+        <v>180</v>
+      </c>
+      <c r="B3" t="s">
+        <v>447</v>
       </c>
       <c r="F3" t="str">
         <f>A3&amp;","</f>
-        <v>AGR,</v>
+        <v>Agriculture,</v>
       </c>
       <c r="S3" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="T3" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>Buildings</v>
+        <v>195</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1036</v>
       </c>
       <c r="F4" t="str">
         <f>F3&amp;A4&amp;","</f>
-        <v>AGR,COM,</v>
+        <v>Agriculture,Commerce,</v>
       </c>
       <c r="S4" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="T4" t="s">
         <v>447</v>
@@ -29439,37 +30194,35 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>Industry</v>
+        <v>447</v>
+      </c>
+      <c r="B5" t="s">
+        <v>447</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F13" si="1">F4&amp;A5&amp;","</f>
-        <v>AGR,COM,IND,</v>
+        <f t="shared" ref="F5:F10" si="0">F4&amp;A5&amp;","</f>
+        <v>Agriculture,Commerce,Industry,</v>
       </c>
       <c r="S5" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="T5" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B6" t="str">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>Buildings</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>AGR,COM,IND,RES,</v>
+        <v>Agriculture,Commerce,Industry,Residential,</v>
       </c>
       <c r="S6" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="T6" t="s">
         <v>810</v>
@@ -29477,199 +30230,511 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B7" t="str">
+        <v>810</v>
+      </c>
+      <c r="B7" t="s">
+        <v>810</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>Transport</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>AGR,COM,IND,RES,TRA,</v>
+        <v>Agriculture,Commerce,Industry,Residential,Transport,</v>
       </c>
       <c r="S7" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="T7" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B8" t="str">
+        <v>1022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>Refineries</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>AGR,COM,IND,RES,TRA,REF,</v>
-      </c>
-      <c r="S8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="T8" t="s">
-        <v>1027</v>
+        <v>Agriculture,Commerce,Industry,Residential,Transport,Refineries,</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B9" t="str">
+        <v>1041</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>Synfuels</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>AGR,COM,IND,RES,TRA,REF,CTL,</v>
+        <v>Agriculture,Commerce,Industry,Residential,Transport,Refineries,HydrogenSector,</v>
       </c>
       <c r="S9" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="T9" t="s">
-        <v>1045</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B10" t="str">
+        <v>703</v>
+      </c>
+      <c r="B10" t="s">
+        <v>703</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>Synfuels</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>AGR,COM,IND,RES,TRA,REF,CTL,GTL,</v>
+        <v>Agriculture,Commerce,Industry,Residential,Transport,Refineries,HydrogenSector,Exports,</v>
       </c>
       <c r="S10" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="T10" t="s">
-        <v>703</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>HydrogenSector</v>
+        <v>1021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1021</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>AGR,COM,IND,RES,TRA,REF,CTL,GTL,HGN,</v>
+        <f>A11&amp;","</f>
+        <v>Extraction,</v>
       </c>
       <c r="S11" t="s">
         <v>1037</v>
       </c>
-      <c r="T11" t="s">
-        <v>1027</v>
+      <c r="T11" t="str">
+        <f>T12</f>
+        <v>ElectricitySector</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>Exports</v>
+        <v>312</v>
+      </c>
+      <c r="B12" t="s">
+        <v>312</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>AGR,COM,IND,RES,TRA,REF,CTL,GTL,HGN,EXP,</v>
+        <f>F11&amp;A12&amp;","</f>
+        <v>Extraction,Imports,</v>
       </c>
       <c r="S12" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="T12" t="s">
-        <v>312</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>ElectricitySector</v>
+        <v>1064</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1064</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>AGR,COM,IND,RES,TRA,REF,CTL,GTL,HGN,EXP,PWR,</v>
+        <f t="shared" ref="F13:F14" si="1">F12&amp;A13&amp;","</f>
+        <v>Extraction,Imports,CrudeRefineries,</v>
       </c>
       <c r="S13" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="T13" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>Imports</v>
+        <v>1024</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1024</v>
       </c>
       <c r="F14" t="str">
-        <f>A14&amp;","</f>
-        <v>IMP,</v>
+        <f t="shared" si="1"/>
+        <v>Extraction,Imports,CrudeRefineries,Synfuels,</v>
       </c>
       <c r="S14" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="T14" t="s">
-        <v>1024</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>Extraction</v>
+        <v>1018</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1018</v>
       </c>
       <c r="F15" t="str">
-        <f>F14&amp;A15&amp;","</f>
-        <v>IMP,MIN,</v>
+        <f>F10&amp;A15</f>
+        <v>Agriculture,Commerce,Industry,Residential,Transport,Refineries,HydrogenSector,Exports,ElectricitySector</v>
       </c>
       <c r="S15" t="s">
-        <v>1041</v>
-      </c>
-      <c r="T15" t="str">
-        <f>T13</f>
-        <v>ElectricitySector</v>
+        <v>1033</v>
+      </c>
+      <c r="T15" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="B16" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B17" t="str">
-        <f>INDEX($T$2:$T$15,MATCH(LEFT(A17,3),$S$2:$S$15,0))</f>
-        <v>ElectricitySector</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>1075</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1065</v>
+        <v>1076</v>
       </c>
       <c r="B18" t="s">
-        <v>1066</v>
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="str">
+        <f>A20&amp;","</f>
+        <v>Cooking,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="str">
+        <f>F20&amp;A21&amp;","</f>
+        <v>Cooking,Lighting,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ref="F22:F25" si="2">F21&amp;A22&amp;","</f>
+        <v>Cooking,Lighting,Other,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="2"/>
+        <v>Cooking,Lighting,Other,Refrigeration,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="2"/>
+        <v>Cooking,Lighting,Other,Refrigeration,Space Heating,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="2"/>
+        <v>Cooking,Lighting,Other,Refrigeration,Space Heating,Water Heating,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>718</v>
+      </c>
+      <c r="B26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F27" t="str">
+        <f>B27&amp;","</f>
+        <v>RLCooking,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F28" t="str">
+        <f>F27&amp;B28&amp;","</f>
+        <v>RLCooking,RLLighting,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F29" t="str">
+        <f>F28&amp;B29&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F31" t="str">
+        <f>F29&amp;B31&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F32" t="str">
+        <f>F31&amp;B32&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F33" t="str">
+        <f>F32&amp;B33&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F34" t="str">
+        <f>F33&amp;B34&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F35" t="str">
+        <f>F34&amp;B35&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F36" t="str">
+        <f>F35&amp;B36&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F38" t="str">
+        <f>F36&amp;B38&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F39" t="str">
+        <f>F38&amp;B39&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,RMSpace Heating,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F40" t="str">
+        <f>F39&amp;B40&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,RMSpace Heating,RMWater Heating,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F41" t="str">
+        <f>F40&amp;B41&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,RMSpace Heating,RMWater Heating,RHCooking,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F42" t="str">
+        <f>F41&amp;B42&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,RMSpace Heating,RMWater Heating,RHCooking,RHLighting,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F43" t="str">
+        <f>F42&amp;B43&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,RMSpace Heating,RMWater Heating,RHCooking,RHLighting,RHOther,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F45" t="str">
+        <f>F43&amp;B45&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,RMSpace Heating,RMWater Heating,RHCooking,RHLighting,RHOther,RHRefrigeration,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F46" t="str">
+        <f>F45&amp;B46&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,RMSpace Heating,RMWater Heating,RHCooking,RHLighting,RHOther,RHRefrigeration,RHSpace Heating,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F47" t="str">
+        <f>F46&amp;B47&amp;","</f>
+        <v>RLCooking,RLLighting,RLOther,RLRefrigeration,RLSpace Heating,RLWater Heating,RMCooking,RMLighting,RMOther,RMRefrigeration,RMSpace Heating,RMWater Heating,RHCooking,RHLighting,RHOther,RHRefrigeration,RHSpace Heating,RHWater Heating,</v>
       </c>
     </row>
   </sheetData>
@@ -29681,23 +30746,24 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E766D8-7F73-4A5A-98A5-9C85D527817F}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A27" sqref="A27:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -29708,130 +30774,220 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B3" t="str">
-        <f>A3</f>
-        <v>Elec_Trans</v>
-      </c>
-      <c r="F3" t="str">
-        <f>A3&amp;","</f>
-        <v>Elec_Trans,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>1066</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" ref="B4" si="0">A4</f>
-        <v>Elec_Gen</v>
-      </c>
-      <c r="F4" t="str">
-        <f>F3&amp;A4&amp;","</f>
-        <v>Elec_Trans,Elec_Gen,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1067</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B5" t="s">
-        <v>1022</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" ref="F5:F7" si="1">F4&amp;A5&amp;","</f>
-        <v>Elec_Trans,Elec_Gen,Electricity,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
       <c r="B6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>Elec_Trans,Elec_Gen,Electricity,Coal,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>1042</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>1042</v>
       </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>Elec_Trans,Elec_Gen,Electricity,Coal,OilProducts,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>1043</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>1044</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1049</v>
+        <v>1079</v>
       </c>
       <c r="B15" t="s">
-        <v>1049</v>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F20" t="str">
+        <f>A20&amp;","</f>
+        <v>Cooking dem,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F21" t="str">
+        <f>F20&amp;A21&amp;","</f>
+        <v>Cooking dem,Lighting dem,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" ref="F22:F25" si="0">F21&amp;A22&amp;","</f>
+        <v>Cooking dem,Lighting dem,Other dem,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>Cooking dem,Lighting dem,Other dem,Refrigeration dem,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>Cooking dem,Lighting dem,Other dem,Refrigeration dem,Space Heating dem,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>Cooking dem,Lighting dem,Other dem,Refrigeration dem,Space Heating dem,Water Heating dem,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1089</v>
       </c>
     </row>
   </sheetData>
@@ -29864,7 +31020,7 @@
   <sheetData>
     <row r="1" spans="3:10">
       <c r="J1" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="2" spans="3:10">
@@ -29900,19 +31056,19 @@
     </row>
     <row r="4" spans="3:10">
       <c r="C4" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="D4" t="s">
         <v>176</v>
       </c>
       <c r="E4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I4" t="s">
         <v>1053</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1058</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>
